--- a/src/MOSI/output/result.xlsx
+++ b/src/MOSI/output/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01E9E6DC-B8C4-4C47-9D00-1A5EFD0E9C7A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23A730B6-F0DF-489C-A535-3BB4EB2FAA34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Early Fusion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,33 @@
   <si>
     <t>Mid Fusion</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Fusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.27411167 0.30456854 0.42131979]</t>
   </si>
 </sst>
 </file>
@@ -365,58 +392,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0.33382000000000001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.31924000000000002</v>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>0.24926999999999999</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.18221999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7" s="1">
+        <v>0.2172</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.20261999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0.37755</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.30612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.33382000000000001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.31924000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0.33528000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
